--- a/RAA.xlsx
+++ b/RAA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirsten\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\CABA-Live-Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7160"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle" sheetId="23" r:id="rId1"/>
@@ -529,14 +529,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -589,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1998</v>
       </c>
@@ -632,18 +634,18 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4">
-        <v>1.0049999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q2" s="5">
         <f>N2*P2</f>
-        <v>18928.169999999998</v>
+        <v>20717.400000000001</v>
       </c>
       <c r="R2" s="9">
         <f>Q2-N2</f>
-        <v>94.169999999998254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1883.4000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -688,18 +690,18 @@
       </c>
       <c r="P3" s="4">
         <f>P2*O3</f>
-        <v>1.0142626728110598</v>
+        <v>1.1101382488479263</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q11" si="0">N3*P3</f>
-        <v>16942.243686635942</v>
+        <v>18543.749308755763</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" ref="R3:R13" si="1">Q3-N3</f>
-        <v>238.24368663594214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1839.7493087557632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -742,18 +744,18 @@
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:P11" si="2">P3*O4</f>
-        <v>1.0314407133058039</v>
+        <v>1.1289400842153079</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="0"/>
-        <v>24203.787778433994</v>
+        <v>26491.708016196415</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="1"/>
-        <v>737.78777843399439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3025.708016196415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -800,18 +802,18 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>1.0657500969534119</v>
+        <v>1.1664926434315954</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="0"/>
-        <v>28846.657874238001</v>
+        <v>31573.456379762993</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="1"/>
-        <v>1779.6578742380007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4506.4563797629926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -855,18 +857,18 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>1.1104419413727777</v>
+        <v>1.2154090900597569</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="0"/>
-        <v>29071.37002513932</v>
+        <v>31819.409977764437</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>2891.3700251393202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5639.4099777644369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -908,18 +910,18 @@
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>1.2363492745342139</v>
+        <v>1.3532181114304833</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="0"/>
-        <v>19598.60869991636</v>
+        <v>21451.213502396022</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>3746.6086999163599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5599.2135023960218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -959,18 +961,18 @@
       </c>
       <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>1.4485990826089534</v>
+        <v>1.5855313341988548</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="0"/>
-        <v>17838.049103246653</v>
+        <v>19524.232849324697</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="1"/>
-        <v>5524.0491032466525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>7210.2328493246969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -1008,18 +1010,18 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>1.8410073575392685</v>
+        <v>2.015032928649946</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="0"/>
-        <v>24139.28847205489</v>
+        <v>26421.11176045809</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="1"/>
-        <v>11027.28847205489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13309.11176045809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -1055,18 +1057,18 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>2.9889173347925224</v>
+        <v>3.2714518092256473</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="0"/>
-        <v>16125.209021205659</v>
+        <v>17649.482510772366</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="1"/>
-        <v>10730.209021205659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>12254.482510772366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -1096,23 +1098,23 @@
         <v>2063</v>
       </c>
       <c r="O11" s="4">
-        <f>B15</f>
-        <v>2.9993586513353794</v>
+        <f>B29</f>
+        <v>8.2060992795413554</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>8.9648350662362368</v>
+        <v>26.845858334740846</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="0"/>
-        <v>18494.454741645357</v>
+        <v>55383.005744570364</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="1"/>
-        <v>16431.454741645357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>53320.005744570364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <f>SUM(C$2:C9)</f>
         <v>60078</v>
@@ -1124,7 +1126,7 @@
       <c r="N12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f>SUM(B$2:B10)</f>
         <v>21829</v>
@@ -1142,14 +1144,14 @@
       </c>
       <c r="Q13" s="5">
         <f>SUM(Q2:Q12)</f>
-        <v>214187.8394025162</v>
+        <v>269574.77005000116</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="1"/>
-        <v>53200.839402516198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>108587.77005000116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>1.0092165898617511</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>12</v>
@@ -1221,7 +1223,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1998</v>
       </c>
@@ -1263,7 +1265,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1999</v>
       </c>
@@ -1302,7 +1304,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -1338,7 +1340,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
@@ -1371,7 +1373,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -1401,7 +1403,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2003</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2004</v>
       </c>
@@ -1452,7 +1454,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -1473,7 +1475,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -1491,7 +1493,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1504,7 +1506,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>1.0092165898617511</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
